--- a/biology/Biochimie/Heinrich_Matthaei/Heinrich_Matthaei.xlsx
+++ b/biology/Biochimie/Heinrich_Matthaei/Heinrich_Matthaei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Matthaei est un biochimiste allemand né le 4 mai 1929 à Bonn, célèbre pour l'établissement du code génétique avec Marshall Nirenberg.
 Il habite actuellement[Quand ?] à Göttingen.
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthaei, avec Marshall Nirenberg, a établi le code génétique, c'est-à-dire le code de correspondance entre la séquence polynucléotidique d'un gène et la séquence polypeptidique de la protéine associée. Pour ce faire, il a synthétisé des molécules d'ARNm avec une séquence donnée et les a placées dans des cellules avec des acides aminés donnés.
 La première expérience, effectuée le 27 mai 1961, a montré qu'un ARNm poly-U, c'est-à-dire composé d'uracile uniquement, était traduit par une protéine composée de phénylalanine uniquement.
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(de) Heinrich Matthaei, Die biochemische Analyse des Genetischen Code, Göttingen, novembre 1966, 46 p.[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(de) Heinrich Matthaei, Die biochemische Analyse des Genetischen Code, Göttingen, novembre 1966, 46 p.
 (de) Heinrich Mathhaei sur le site de la DNB</t>
         </is>
       </c>
